--- a/Assets/ExcelDatas/Skill.xlsx
+++ b/Assets/ExcelDatas/Skill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dunn\Desktop\어드밴스\기획서\실제 사용할 테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A913CC7-ABB9-40E8-B0F9-1BEDCF089C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47327BF2-9983-4AB6-AF88-4F80E8CCB8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="2688" yWindow="1704" windowWidth="16788" windowHeight="11256" activeTab="2" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
   <si>
     <t>ALL:KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고유 인덱스 값입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,23 +167,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>등장 몬스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패턴 몬스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목표 몬스터 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진척률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoblinAttack1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoblinAttack2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightningSpear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shardspary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IceArrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbyssalShock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TwinLeefs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DarknessOrb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +294,31 @@
   <dxfs count="14">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -335,26 +383,6 @@
     <dxf>
       <font>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -525,13 +553,13 @@
   <autoFilter ref="A3:H12" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="//Name" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{BF845FF7-45A1-459C-90FB-8D626C86D914}" name="Name" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="AttackDamage" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="AttackSpeed" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Range" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="ProjectileSpeed" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{10204976-6592-4FB9-951E-15CCC0EC3849}" name="PenetrateTaget" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Description" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="Icon" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="AttackDamage" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="AttackSpeed" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Range" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="ProjectileSpeed" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -836,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6329419-DE25-48C7-9BB0-F65E2B49D800}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C18:C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -859,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -873,7 +901,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -887,7 +915,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -901,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -915,7 +943,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -929,7 +957,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -943,7 +971,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -957,7 +985,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -992,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -1000,7 +1028,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -1008,7 +1036,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -1095,41 +1123,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.296875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.796875" style="2"/>
-    <col min="10" max="16384" width="8.796875" style="3"/>
+    <col min="3" max="4" width="12" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.796875" style="2"/>
+    <col min="11" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -1141,18 +1163,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1167,282 +1183,214 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2">
+        <v>100</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2">
+        <v>170</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3000</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>10003</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2">
+        <v>200</v>
+      </c>
+      <c r="F6" s="2">
+        <v>500</v>
+      </c>
+      <c r="G6" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <v>1001</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2">
-        <v>101</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="H6" s="2">
         <v>100</v>
       </c>
-      <c r="E4" s="2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2">
+        <v>130</v>
+      </c>
+      <c r="F7" s="2">
+        <v>700</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2">
+        <v>160</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2">
+        <v>100</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>10007</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2">
+        <v>100</v>
+      </c>
+      <c r="F10" s="2">
         <v>1000</v>
       </c>
-      <c r="F4" s="2">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
         <v>100</v>
       </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <v>1002</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2">
-        <v>102</v>
-      </c>
-      <c r="D5" s="2">
-        <v>170</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3000</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>10008</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <v>200</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
         <v>100</v>
       </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <v>1003</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>10009</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2">
         <v>15</v>
       </c>
-      <c r="C6" s="2">
-        <v>103</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="F12" s="2">
         <v>200</v>
       </c>
-      <c r="E6" s="2">
-        <v>500</v>
-      </c>
-      <c r="F6" s="2">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
         <v>100</v>
       </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>1004</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2">
-        <v>104</v>
-      </c>
-      <c r="D7" s="2">
-        <v>130</v>
-      </c>
-      <c r="E7" s="2">
-        <v>700</v>
-      </c>
-      <c r="F7" s="2">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2">
-        <v>100</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>1005</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2">
-        <v>105</v>
-      </c>
-      <c r="D8" s="2">
-        <v>160</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F8" s="2">
-        <v>312</v>
-      </c>
-      <c r="G8" s="2">
-        <v>100</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>1006</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2">
-        <v>106</v>
-      </c>
-      <c r="D9" s="2">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2">
-        <v>100</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3</v>
-      </c>
-      <c r="G9" s="2">
-        <v>100</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>1007</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2">
-        <v>107</v>
-      </c>
-      <c r="D10" s="2">
-        <v>100</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F10" s="2">
-        <v>11</v>
-      </c>
-      <c r="G10" s="2">
-        <v>100</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>1008</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2">
-        <v>108</v>
-      </c>
-      <c r="D11" s="2">
-        <v>160</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3000</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3</v>
-      </c>
-      <c r="G11" s="2">
-        <v>100</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>1009</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2">
-        <v>109</v>
-      </c>
-      <c r="D12" s="2">
-        <v>100</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2400</v>
-      </c>
-      <c r="F12" s="2">
-        <v>4</v>
-      </c>
-      <c r="G12" s="2">
-        <v>100</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I15" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>37</v>
-      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J15" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ExcelDatas/Skill.xlsx
+++ b/Assets/ExcelDatas/Skill.xlsx
@@ -5,38 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dunn\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47327BF2-9983-4AB6-AF88-4F80E8CCB8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A64CEC4-654B-458F-AD7B-CFA598FD98BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="1704" windowWidth="16788" windowHeight="11256" activeTab="2" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="6" r:id="rId1"/>
     <sheet name="String" sheetId="5" r:id="rId2"/>
     <sheet name="Weapon" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>ALL:KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,39 +170,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fireball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LightningSpear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shardspary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IceArrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AbyssalShock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TwinLeefs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DarknessOrb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이트닝스피어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염구를 날릴 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거리가 먼 적을 처치할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겹겹이 몰려오는 적을 뚫을 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,31 +277,7 @@
   <dxfs count="14">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -382,7 +341,31 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -554,12 +537,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Description" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="Icon" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="AttackDamage" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="AttackSpeed" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Range" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="ProjectileSpeed" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Description" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="Icon" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="AttackDamage" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="AttackSpeed" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Range" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="ProjectileSpeed" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1126,14 +1109,15 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.296875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" customWidth="1"/>
     <col min="5" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.796875" style="2" bestFit="1" customWidth="1"/>
@@ -1150,6 +1134,12 @@
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1169,6 +1159,12 @@
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1191,10 +1187,10 @@
         <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
@@ -1214,7 +1210,10 @@
         <v>10001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E4" s="2">
         <v>100</v>
@@ -1234,7 +1233,10 @@
         <v>10002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E5" s="2">
         <v>170</v>
@@ -1254,7 +1256,10 @@
         <v>10003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E6" s="2">
         <v>200</v>
@@ -1274,7 +1279,7 @@
         <v>10004</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2">
         <v>130</v>
@@ -1294,7 +1299,7 @@
         <v>10005</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2">
         <v>160</v>
@@ -1314,7 +1319,7 @@
         <v>10006</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2">
         <v>30</v>
@@ -1334,7 +1339,7 @@
         <v>10007</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2">
         <v>100</v>

--- a/Assets/ExcelDatas/Skill.xlsx
+++ b/Assets/ExcelDatas/Skill.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dunn\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A64CEC4-654B-458F-AD7B-CFA598FD98BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229491A1-70D3-4510-AC36-A88D6B25FAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Define" sheetId="6" r:id="rId1"/>
-    <sheet name="String" sheetId="5" r:id="rId2"/>
-    <sheet name="Weapon" sheetId="3" r:id="rId3"/>
+    <sheet name="Define" sheetId="6" state="hidden" r:id="rId1"/>
+    <sheet name="SkillTable" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>ALL:KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,110 +81,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>샤드스프레이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스애로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어비설쇼크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트윈리프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크니스오브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유 인덱스 값입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기의 이름이 들어가는 주석입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기의 이름을 스트링테이블에서 가져옵니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기의 데미지 입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기의 공격 속도입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기의 사거리 입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체의 스피드 입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체가 맞는 대상의 수입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoblinAttack1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoblinAttack2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>라이트닝스피어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>샤드스프레이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스애로우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어비설쇼크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트윈리프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다크니스오브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포이즌미스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>썬더스톰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고유 인덱스 값입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기의 이름이 들어가는 주석입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기의 이름을 스트링테이블에서 가져옵니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기의 데미지 입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기의 공격 속도입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기의 사거리 입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체의 스피드 입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체가 맞는 대상의 수입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoblinAttack1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoblinAttack2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이트닝스피어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화염구를 날릴 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,6 +174,10 @@
   </si>
   <si>
     <t>겹겹이 몰려오는 적을 뚫을 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackDamage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +257,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="10">
     <dxf>
       <font>
         <strike val="0"/>
@@ -443,70 +426,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -521,17 +440,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{302EC05B-B07B-4721-BA29-1A852851441F}" name="표2_4" displayName="표2_4" ref="A3:B12" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A3:B12" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F9D87627-4937-43BE-809E-3B64EF01ED1B}" name="Index" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{885159D2-5020-4A3C-A364-EFA526616E66}" name="Description" dataDxfId="10"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:H12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A3:H12" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="8">
@@ -870,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -884,7 +792,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -895,10 +803,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -912,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -926,7 +834,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -940,7 +848,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -954,7 +862,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -968,7 +876,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -978,138 +886,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D546AE16-962C-45B4-9BBE-C8E333FFDE9F}">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="8.796875" style="2"/>
-    <col min="2" max="2" width="13.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.69921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.19921875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.8984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.796875" style="2"/>
-    <col min="9" max="16384" width="8.796875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <v>101</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <v>102</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <v>103</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>104</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>105</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>106</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>107</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>108</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>109</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -1158,13 +939,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1184,16 +965,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
@@ -1213,7 +994,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2">
         <v>100</v>
@@ -1233,10 +1014,10 @@
         <v>10002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2">
         <v>170</v>
@@ -1256,10 +1037,10 @@
         <v>10003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2">
         <v>200</v>
@@ -1279,7 +1060,7 @@
         <v>10004</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2">
         <v>130</v>
@@ -1299,7 +1080,7 @@
         <v>10005</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2">
         <v>160</v>
@@ -1319,7 +1100,7 @@
         <v>10006</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2">
         <v>30</v>
@@ -1339,7 +1120,7 @@
         <v>10007</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2">
         <v>100</v>
@@ -1359,7 +1140,7 @@
         <v>10008</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
@@ -1379,7 +1160,7 @@
         <v>10009</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2">
         <v>15</v>

--- a/Assets/ExcelDatas/Skill.xlsx
+++ b/Assets/ExcelDatas/Skill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229491A1-70D3-4510-AC36-A88D6B25FAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B255AD-15B8-4409-AB19-02E80D7FAB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="16965" yWindow="1665" windowWidth="20595" windowHeight="11400" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="6" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>ALL:KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,26 @@
   </si>
   <si>
     <t>AttackDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL;KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectileSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,7 +277,39 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -440,17 +492,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:H12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A3:H12" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Description" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="Icon" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="AttackDamage" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="AttackSpeed" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Range" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="ProjectileSpeed" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:J12" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A3:J12" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Description" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="Icon" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="AttackDamage" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="AttackSpeed" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Range" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="ProjectileSpeed" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{3C81A81A-D96F-491F-B53B-D710A1F19932}" name="ProjectileSize" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{0D1C961E-72A2-4AF0-90A2-EC797787F961}" name="AOE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -759,15 +813,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.796875" style="1"/>
-    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.75" style="1"/>
+    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -781,7 +835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -795,7 +849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -809,7 +863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -823,7 +877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -837,7 +891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -851,7 +905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -865,7 +919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -890,27 +944,27 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
     <col min="5" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.796875" style="2"/>
-    <col min="11" max="16384" width="8.796875" style="3"/>
+    <col min="6" max="6" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -933,8 +987,14 @@
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -959,8 +1019,14 @@
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -985,8 +1051,14 @@
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>10001</v>
       </c>
@@ -1009,7 +1081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>10002</v>
       </c>
@@ -1032,7 +1104,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>10003</v>
       </c>
@@ -1055,7 +1127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>10004</v>
       </c>
@@ -1075,7 +1147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>10005</v>
       </c>
@@ -1095,7 +1167,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>10006</v>
       </c>
@@ -1115,7 +1187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>10007</v>
       </c>
@@ -1135,7 +1207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10008</v>
       </c>
@@ -1155,7 +1227,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10009</v>
       </c>
@@ -1175,7 +1247,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J15" s="3"/>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/Skill.xlsx
+++ b/Assets/ExcelDatas/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B255AD-15B8-4409-AB19-02E80D7FAB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D572344-7E22-49F1-9109-787F309118EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16965" yWindow="1665" windowWidth="20595" windowHeight="11400" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="6" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>ALL:KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,26 +81,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>샤드스프레이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이스애로우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어비설쇼크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트윈리프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다크니스오브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,14 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GoblinAttack1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoblinAttack2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,6 +175,16 @@
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets\SPUM\Retro UI Set\1_UI_Images\Theme1\02_Icons\3_Skill\Icon_Skill_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets\SPUM\Retro UI Set\1_UI_Images\Theme1\02_Icons\3_Skill\Icon_Skill_2.png</t>
+  </si>
+  <si>
+    <t>Assets\SPUM\Retro UI Set\1_UI_Images\Theme1\02_Icons\3_Skill\Icon_Skill_3.png</t>
   </si>
 </sst>
 </file>
@@ -492,8 +478,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:J12" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A3:J12" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:J6" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A3:J6" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="8"/>
@@ -832,7 +818,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -846,7 +832,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -857,10 +843,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -874,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -888,7 +874,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -902,7 +888,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -916,7 +902,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -930,7 +916,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -941,10 +927,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -952,7 +938,7 @@
     <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12" style="2" customWidth="1"/>
+    <col min="4" max="4" width="65.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.75" style="2" bestFit="1" customWidth="1"/>
@@ -964,7 +950,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -988,10 +974,10 @@
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -999,13 +985,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1020,10 +1006,10 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1031,16 +1017,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
@@ -1052,10 +1038,10 @@
         <v>11</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1066,7 +1052,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E4" s="2">
         <v>100</v>
@@ -1079,6 +1068,12 @@
       </c>
       <c r="H4" s="2">
         <v>100</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1086,10 +1081,13 @@
         <v>10002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E5" s="2">
         <v>170</v>
@@ -1102,6 +1100,12 @@
       </c>
       <c r="H5" s="2">
         <v>100</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1109,10 +1113,13 @@
         <v>10003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E6" s="2">
         <v>200</v>
@@ -1126,129 +1133,12 @@
       <c r="H6" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>10004</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2">
-        <v>130</v>
-      </c>
-      <c r="F7" s="2">
-        <v>700</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>10005</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2">
-        <v>160</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5</v>
-      </c>
-      <c r="H8" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>10006</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2">
-        <v>100</v>
-      </c>
-      <c r="G9" s="2">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>10007</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2">
-        <v>100</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G10" s="2">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10008</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2">
-        <v>200</v>
-      </c>
-      <c r="G11" s="2">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>10009</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="2">
-        <v>15</v>
-      </c>
-      <c r="F12" s="2">
-        <v>200</v>
-      </c>
-      <c r="G12" s="2">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J15" s="3"/>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ExcelDatas/Skill.xlsx
+++ b/Assets/ExcelDatas/Skill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D572344-7E22-49F1-9109-787F309118EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{1D572344-7E22-49F1-9109-787F309118EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AA55EB8-711C-4F7A-9776-49A1F1F3F378}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="6" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>ALL:KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,10 +162,6 @@
   </si>
   <si>
     <t>ProjectileSize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AOE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -263,23 +259,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <strike val="0"/>
@@ -477,20 +457,23 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:J6" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A3:J6" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Description" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="Icon" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="AttackDamage" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="AttackSpeed" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Range" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="ProjectileSpeed" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{3C81A81A-D96F-491F-B53B-D710A1F19932}" name="ProjectileSize" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{0D1C961E-72A2-4AF0-90A2-EC797787F961}" name="AOE" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:I6" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A3:I6" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Description" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="Icon" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="AttackDamage" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="AttackSpeed" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Range" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="ProjectileSpeed" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{3C81A81A-D96F-491F-B53B-D710A1F19932}" name="ProjectileSize" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -799,7 +782,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="2" width="8.75" style="1"/>
     <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
@@ -807,7 +790,7 @@
     <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -821,7 +804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -835,7 +818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -849,7 +832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -863,7 +846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -877,7 +860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -891,7 +874,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -905,7 +888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -927,13 +910,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
@@ -944,11 +927,10 @@
     <col min="7" max="7" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.25" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.75" style="3"/>
+    <col min="10" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -974,13 +956,10 @@
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1006,13 +985,10 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1040,11 +1016,8 @@
       <c r="I3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A4" s="2">
         <v>10001</v>
       </c>
@@ -1055,7 +1028,7 @@
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2">
         <v>100</v>
@@ -1067,16 +1040,13 @@
         <v>5</v>
       </c>
       <c r="H4" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A5" s="2">
         <v>10002</v>
       </c>
@@ -1087,7 +1057,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2">
         <v>170</v>
@@ -1099,16 +1069,13 @@
         <v>3</v>
       </c>
       <c r="H5" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A6" s="2">
         <v>10003</v>
       </c>
@@ -1119,7 +1086,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2">
         <v>200</v>
@@ -1131,13 +1098,10 @@
         <v>12</v>
       </c>
       <c r="H6" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
